--- a/table5.xlsx
+++ b/table5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Git/scientific_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1C4841-FA6C-D141-AD65-91FB3D564C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0351E67-CC30-4347-8ED2-142CFDA97D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,69 +20,552 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>relative importance</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="182">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Wild countryside</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>longest axis length of ETC (Q1)</t>
+  </si>
+  <si>
+    <t>covered area ratio of ETC (Q2)</t>
   </si>
   <si>
     <t>covered area ratio of ETC (Q1)</t>
   </si>
   <si>
-    <t>0.036944</t>
-  </si>
-  <si>
-    <t>covered area ratio of ETC (Q2)</t>
-  </si>
-  <si>
-    <t>0.031717</t>
+    <t>area of ETC (Q2)</t>
+  </si>
+  <si>
+    <t>perimeter-weighted neighbours of ETC (Q3)</t>
+  </si>
+  <si>
+    <t>reached area by neighbouring segments (Q1)</t>
+  </si>
+  <si>
+    <t>reached area by tessellation contiguity (Q1)</t>
+  </si>
+  <si>
+    <t>area of ETC (Q3)</t>
+  </si>
+  <si>
+    <t>mean distance between neighbouring buildings (Q2)</t>
+  </si>
+  <si>
+    <t>mean inter-building distance (Q2)</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>0.146</t>
+  </si>
+  <si>
+    <t>0.096</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.049</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>Countryside agriculture</t>
+  </si>
+  <si>
+    <t>area covered by node-attached ETCs (Q2)</t>
+  </si>
+  <si>
+    <t>mean distance to neighbouring nodes of street ...</t>
+  </si>
+  <si>
+    <t>Land cover [Discontinuous urban fabric] (Q2)</t>
   </si>
   <si>
     <t>perimeter-weighted neighbours of ETC (Q2)</t>
   </si>
   <si>
-    <t>0.023476</t>
-  </si>
-  <si>
-    <t>mean inter-building distance (Q2)</t>
-  </si>
-  <si>
-    <t>0.016662</t>
-  </si>
-  <si>
-    <t>area of ETC (Q3)</t>
-  </si>
-  <si>
-    <t>0.016005</t>
+    <t>longest axis length of ETC (Q2)</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.144</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>0.073</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>0.063</t>
+  </si>
+  <si>
+    <t>0.055</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>Gridded residential quarters</t>
+  </si>
+  <si>
+    <t>local closeness of street network (Q3)</t>
+  </si>
+  <si>
+    <t>local closeness of street network (Q2)</t>
+  </si>
+  <si>
+    <t>perimeter of enclosure (Q1)</t>
+  </si>
+  <si>
+    <t>area of enclosure (Q2)</t>
+  </si>
+  <si>
+    <t>local closeness of street network (Q1)</t>
+  </si>
+  <si>
+    <t>weighted reached enclosures of ETC (Q3)</t>
+  </si>
+  <si>
+    <t>local proportion of 4-way intersections of str...</t>
+  </si>
+  <si>
+    <t>area covered by node-attached ETCs (Q1)</t>
+  </si>
+  <si>
+    <t>weighted reached enclosures of ETC (Q2)</t>
+  </si>
+  <si>
+    <t>0.095</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>Accessible suburbia</t>
+  </si>
+  <si>
+    <t>reached ETCs by tessellation contiguity (Q3)</t>
+  </si>
+  <si>
+    <t>reached area by tessellation contiguity (Q2)</t>
+  </si>
+  <si>
+    <t>reached ETCs by neighbouring segments (Q1)</t>
+  </si>
+  <si>
+    <t>reached ETCs by neighbouring segments (Q2)</t>
+  </si>
+  <si>
+    <t>reached ETCs by local street network (Q2)</t>
+  </si>
+  <si>
+    <t>perimeter-weighted neighbours of ETC (Q1)</t>
+  </si>
+  <si>
+    <t>reached ETCs by local street network (Q1)</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>Connected residential neighbourhoods</t>
+  </si>
+  <si>
+    <t>cell alignment of building (Q1)</t>
+  </si>
+  <si>
+    <t>cell alignment of building (Q2)</t>
+  </si>
+  <si>
+    <t>orientation of ETC (Q2)</t>
+  </si>
+  <si>
+    <t>equivalent rectangular index of building (Q1)</t>
+  </si>
+  <si>
+    <t>local proportion of cul-de-sacs of street netw...</t>
+  </si>
+  <si>
+    <t>orientation of enclosure (Q1)</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>Urban buffer</t>
+  </si>
+  <si>
+    <t>area covered by neighbouring cells (Q2)</t>
+  </si>
+  <si>
+    <t>circular compactness of ETC (Q2)</t>
+  </si>
+  <si>
+    <t>area covered by neighbouring cells (Q1)</t>
+  </si>
+  <si>
+    <t>buildings per meter of street segment (Q2)</t>
   </si>
   <si>
     <t>area covered by node-attached ETCs (Q3)</t>
   </si>
   <si>
-    <t>0.014813</t>
-  </si>
-  <si>
-    <t>longest axis length of ETC (Q2)</t>
-  </si>
-  <si>
-    <t>0.014501</t>
-  </si>
-  <si>
-    <t>weighted reached enclosures of ETC (Q1)</t>
-  </si>
-  <si>
-    <t>0.014115</t>
-  </si>
-  <si>
-    <t>reached area by neighbouring segments (Q3)</t>
-  </si>
-  <si>
-    <t>0.014000</t>
-  </si>
-  <si>
-    <t>reached area by neighbouring segments (Q1)</t>
-  </si>
-  <si>
-    <t>0.013904</t>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>Open sprawl</t>
+  </si>
+  <si>
+    <t>reached area by local street network (Q1)</t>
+  </si>
+  <si>
+    <t>local node density of street network (Q3)</t>
+  </si>
+  <si>
+    <t>reached area by neighbouring segments (Q2)</t>
+  </si>
+  <si>
+    <t>compactness-weighted axis of enclosure (Q3)</t>
+  </si>
+  <si>
+    <t>0.058</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>Warehouse/Park land</t>
+  </si>
+  <si>
+    <t>elongation of building (Q1)</t>
+  </si>
+  <si>
+    <t>centroid - corner mean distance of building (Q3)</t>
+  </si>
+  <si>
+    <t>elongation of building (Q2)</t>
+  </si>
+  <si>
+    <t>circular compactness of building (Q1)</t>
+  </si>
+  <si>
+    <t>centroid - corner distance deviation of buildi...</t>
+  </si>
+  <si>
+    <t>perimeter of building (Q3)</t>
+  </si>
+  <si>
+    <t>width of street profile (Q2)</t>
+  </si>
+  <si>
+    <t>circular compactness of building (Q2)</t>
+  </si>
+  <si>
+    <t>perimeter of building (Q2)</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>Local urbanity</t>
+  </si>
+  <si>
+    <t>centroid - corner mean distance of building (Q2)</t>
+  </si>
+  <si>
+    <t>squareness of building (Q3)</t>
+  </si>
+  <si>
+    <t>area of building (Q2)</t>
+  </si>
+  <si>
+    <t>Workplace population [Financial, real estate, ...</t>
+  </si>
+  <si>
+    <t>Workplace population [Distribution, hotels and...</t>
+  </si>
+  <si>
+    <t>area of building (Q1)</t>
+  </si>
+  <si>
+    <t>0.101</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>Dense residential neighbourhoods</t>
+  </si>
+  <si>
+    <t>area of building (Q3)</t>
+  </si>
+  <si>
+    <t>Population (Q3)</t>
+  </si>
+  <si>
+    <t>orientation of enclosure (Q2)</t>
+  </si>
+  <si>
+    <t>area of enclosure (Q1)</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>Disconnected suburbia</t>
+  </si>
+  <si>
+    <t>local meshedness of street network (Q3)</t>
+  </si>
+  <si>
+    <t>local meshedness of street network (Q2)</t>
+  </si>
+  <si>
+    <t>Population (Q1)</t>
+  </si>
+  <si>
+    <t>area covered by edge-attached ETCs (Q3)</t>
+  </si>
+  <si>
+    <t>Dense urban neighbourhoods</t>
+  </si>
+  <si>
+    <t>Workplace population [Other] (Q2)</t>
+  </si>
+  <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>Regional urbanity</t>
+  </si>
+  <si>
+    <t>corners of building (Q3)</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>0.071</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>Metropolitan urbanity</t>
+  </si>
+  <si>
+    <t>equivalent rectangular index of building (Q2)</t>
+  </si>
+  <si>
+    <t>corners of building (Q2)</t>
+  </si>
+  <si>
+    <t>centroid - corner mean distance of building (Q1)</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>0.087</t>
+  </si>
+  <si>
+    <t>0.081</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>Concentrated urbanity</t>
+  </si>
+  <si>
+    <t>Workplace population [Manufacturing] (Q2)</t>
+  </si>
+  <si>
+    <t>Land cover [Non-irrigated arable land] (Q1)</t>
+  </si>
+  <si>
+    <t>0.128</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>Hyper concentrated urbanity</t>
+  </si>
+  <si>
+    <t>Workplace population [Manufacturing] (Q3)</t>
+  </si>
+  <si>
+    <t>openness of street profile (Q2)</t>
+  </si>
+  <si>
+    <t>NDVI (Q3)</t>
+  </si>
+  <si>
+    <t>0.102</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.027</t>
   </si>
 </sst>
 </file>
@@ -468,107 +951,1284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="J2" t="s">
         <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" t="s">
+        <v>151</v>
+      </c>
+      <c r="I25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>140</v>
+      </c>
+      <c r="L27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>175</v>
+      </c>
+      <c r="I32" t="s">
+        <v>124</v>
+      </c>
+      <c r="J32" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" t="s">
+        <v>176</v>
+      </c>
+      <c r="L32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>179</v>
+      </c>
+      <c r="J33" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" t="s">
+        <v>180</v>
+      </c>
+      <c r="L33" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:B11 B1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L33" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>